--- a/To Be Modeled/General Mills.xlsx
+++ b/To Be Modeled/General Mills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1237BFE3-B699-A746-9716-DBE2EE23A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1799B-6FD2-3941-BC92-C75D5A1D0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21760" yWindow="500" windowWidth="19340" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -569,17 +569,24 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -748,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -854,24 +861,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -886,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -968,32 +922,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,74 +943,75 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2474,11 +2415,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2495,20 +2438,22 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7450000000000004E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2635,38 +2580,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>90.89</v>
-    <v>64.94</v>
-    <v>0.25219999999999998</v>
-    <v>-0.85</v>
-    <v>-1.0419000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>72.16</v>
+    <v>0.22109999999999999</v>
+    <v>0.4</v>
+    <v>5.2420000000000001E-3</v>
+    <v>0.15</v>
+    <v>1.9559999999999998E-3</v>
     <v>USD</v>
     <v>General Mills, Inc. is a global manufacturer and marketer of branded consumer foods. The Company operates through four segments: North America Retail, International, Pet, and North America Foodservice. The North America Retail segment reflects business with a variety of grocery stores, mass merchandisers, membership stores, natural food chains, drug, dollar and discount chains, convenience stores, and e-commerce grocery providers. The International segment reflects retail and foodservice businesses outside of the United States and Canada. The Pet segment includes pet food products sold primarily in the United States and Canada in national pet superstore chains, e-commerce retailers, grocery stores, regional pet store chains, mass merchandisers, and veterinary clinics and hospitals. The North America Foodservice segment offers products, such as ready-to-eat cereals, snacks, refrigerated yogurt, frozen meals, unbaked and fully baked frozen dough products, baking mixes, and bakery flour.</v>
-    <v>32500</v>
+    <v>34000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Number One General Mills Blvd, MINNEAPOLIS, MN, 55426 US</v>
-    <v>81.040000000000006</v>
+    <v>77.040099999999995</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45090.995335601561</v>
+    <v>45107.999426307812</v>
     <v>0</v>
-    <v>80.06</v>
-    <v>47417128785</v>
+    <v>76.41</v>
+    <v>44883520000</v>
     <v>GENERAL MILLS, INC.</v>
     <v>GENERAL MILLS, INC.</v>
-    <v>80.87</v>
-    <v>17.611999999999998</v>
-    <v>81.58</v>
-    <v>80.73</v>
-    <v>80.73</v>
-    <v>587354500</v>
+    <v>76.48</v>
+    <v>17.6951</v>
+    <v>76.3</v>
+    <v>76.7</v>
+    <v>76.849999999999994</v>
+    <v>585182700</v>
     <v>GIS</v>
     <v>GENERAL MILLS, INC. (XNYS:GIS)</v>
-    <v>5473744</v>
-    <v>3137977</v>
+    <v>4125997</v>
+    <v>4222859</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -3253,11 +3198,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AL87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ51" sqref="AQ51"/>
+      <selection pane="bottomRight" activeCell="AR91" sqref="AR91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3388,19 +3333,19 @@
       <c r="AN1" s="8">
         <v>2022</v>
       </c>
-      <c r="AO1" s="33">
+      <c r="AO1" s="27">
         <v>2023</v>
       </c>
-      <c r="AP1" s="33">
+      <c r="AP1" s="27">
         <v>2024</v>
       </c>
-      <c r="AQ1" s="33">
+      <c r="AQ1" s="27">
         <v>2025</v>
       </c>
-      <c r="AR1" s="33">
+      <c r="AR1" s="27">
         <v>2026</v>
       </c>
-      <c r="AS1" s="33">
+      <c r="AS1" s="27">
         <v>2027</v>
       </c>
     </row>
@@ -3658,19 +3603,19 @@
       <c r="AN3" s="1">
         <v>18992800000</v>
       </c>
-      <c r="AO3" s="34">
+      <c r="AO3" s="28">
         <v>20228000000</v>
       </c>
-      <c r="AP3" s="34">
+      <c r="AP3" s="28">
         <v>20833000000</v>
       </c>
-      <c r="AQ3" s="34">
+      <c r="AQ3" s="28">
         <v>21192000000</v>
       </c>
-      <c r="AR3" s="34">
+      <c r="AR3" s="28">
         <v>21977000000</v>
       </c>
-      <c r="AS3" s="34">
+      <c r="AS3" s="28">
         <v>22305000000</v>
       </c>
       <c r="AT3" s="18" t="s">
@@ -5517,21 +5462,21 @@
       <c r="AN16" s="1">
         <v>15737600000</v>
       </c>
-      <c r="AT16" s="35">
+      <c r="AT16" s="29">
         <f>(AN35+AM35+AL35+AK35+AJ35)/5</f>
         <v>5.0147105164415375E-3</v>
       </c>
-      <c r="AU16" s="36">
+      <c r="AU16" s="30">
         <f>AV101/AN3</f>
-        <v>2.4965844312055094</v>
-      </c>
-      <c r="AV16" s="36">
+        <v>2.3631860494503178</v>
+      </c>
+      <c r="AV16" s="30">
         <f>AV101/AN28</f>
-        <v>17.514545408709786</v>
-      </c>
-      <c r="AW16" s="37">
+        <v>16.578702027850625</v>
+      </c>
+      <c r="AW16" s="31">
         <f>AV101/AN107</f>
-        <v>17.25890980017471</v>
+        <v>16.336725631506152</v>
       </c>
     </row>
     <row r="17" spans="1:49" ht="19" x14ac:dyDescent="0.25">
@@ -5911,36 +5856,36 @@
       <c r="AN19" s="10">
         <v>4247300000</v>
       </c>
-      <c r="AO19" s="38">
+      <c r="AO19" s="32">
         <v>4002000000</v>
       </c>
-      <c r="AP19" s="38">
+      <c r="AP19" s="32">
         <v>4238000000</v>
       </c>
-      <c r="AQ19" s="38">
+      <c r="AQ19" s="32">
         <v>4320000000</v>
       </c>
-      <c r="AR19" s="38">
+      <c r="AR19" s="32">
         <v>4618000000</v>
       </c>
-      <c r="AS19" s="38">
+      <c r="AS19" s="32">
         <v>4758000000</v>
       </c>
-      <c r="AT19" s="39">
+      <c r="AT19" s="33">
         <f>AN40-AN56-AN61</f>
         <v>-11156200000</v>
       </c>
-      <c r="AU19" s="36">
+      <c r="AU19" s="30">
         <f>AV101/AO3</f>
-        <v>2.3441333194087401</v>
-      </c>
-      <c r="AV19" s="36">
+        <v>2.2188807593434845</v>
+      </c>
+      <c r="AV19" s="30">
         <f>AV101/AO28</f>
-        <v>18.602247463711258</v>
-      </c>
-      <c r="AW19" s="37">
+        <v>17.60828560219694</v>
+      </c>
+      <c r="AW19" s="31">
         <f>AV101/AO106</f>
-        <v>16.024714019939168</v>
+        <v>15.168475836431227</v>
       </c>
     </row>
     <row r="20" spans="1:49" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,7 +6066,7 @@
         <v>3.0316154179298449E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6242,25 +6187,31 @@
       <c r="AN21" s="2">
         <v>0.22359999999999999</v>
       </c>
-      <c r="AO21" s="40">
+      <c r="AO21" s="34">
         <f>AO19/AO3</f>
         <v>0.19784457188056159</v>
       </c>
-      <c r="AP21" s="40">
+      <c r="AP21" s="34">
         <f t="shared" ref="AP21:AS21" si="4">AP19/AP3</f>
         <v>0.20342725483607738</v>
       </c>
-      <c r="AQ21" s="40">
+      <c r="AQ21" s="34">
         <f t="shared" si="4"/>
         <v>0.20385050962627407</v>
       </c>
-      <c r="AR21" s="40">
+      <c r="AR21" s="34">
         <f t="shared" si="4"/>
         <v>0.21012877098785093</v>
       </c>
-      <c r="AS21" s="40">
+      <c r="AS21" s="34">
         <f t="shared" si="4"/>
         <v>0.21331540013449898</v>
+      </c>
+      <c r="AV21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:49" ht="19" x14ac:dyDescent="0.25">
@@ -6384,6 +6335,14 @@
       <c r="AN22" s="10">
         <v>3475800000</v>
       </c>
+      <c r="AV22" s="66">
+        <f>(-1*AN98)/AV101</f>
+        <v>3.2183304696244856E-2</v>
+      </c>
+      <c r="AW22" s="67">
+        <f>AN107/AV101</f>
+        <v>6.1211776616450761E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -7116,19 +7075,19 @@
       <c r="AN28" s="11">
         <v>2707300000</v>
       </c>
-      <c r="AO28" s="41">
+      <c r="AO28" s="35">
         <v>2549000000</v>
       </c>
-      <c r="AP28" s="41">
+      <c r="AP28" s="35">
         <v>2670000000</v>
       </c>
-      <c r="AQ28" s="41">
+      <c r="AQ28" s="35">
         <v>2767000000</v>
       </c>
-      <c r="AR28" s="41">
+      <c r="AR28" s="35">
         <v>2996000000</v>
       </c>
-      <c r="AS28" s="41">
+      <c r="AS28" s="35">
         <v>3104000000</v>
       </c>
     </row>
@@ -7431,23 +7390,23 @@
       <c r="AN30" s="2">
         <v>0.14249999999999999</v>
       </c>
-      <c r="AO30" s="42">
+      <c r="AO30" s="36">
         <f>AO28/AO3</f>
         <v>0.12601344670753412</v>
       </c>
-      <c r="AP30" s="42">
+      <c r="AP30" s="36">
         <f t="shared" ref="AP30:AS30" si="6">AP28/AP3</f>
         <v>0.1281620505928095</v>
       </c>
-      <c r="AQ30" s="42">
+      <c r="AQ30" s="36">
         <f t="shared" si="6"/>
         <v>0.1305681389203473</v>
       </c>
-      <c r="AR30" s="42">
+      <c r="AR30" s="36">
         <f t="shared" si="6"/>
         <v>0.1363243390817673</v>
       </c>
-      <c r="AS30" s="42">
+      <c r="AS30" s="36">
         <f t="shared" si="6"/>
         <v>0.1391616229544945</v>
       </c>
@@ -7573,19 +7532,19 @@
       <c r="AN31" s="12">
         <v>4.46</v>
       </c>
-      <c r="AO31" s="43">
+      <c r="AO31" s="37">
         <v>4.34</v>
       </c>
-      <c r="AP31" s="43">
+      <c r="AP31" s="37">
         <v>4.55</v>
       </c>
-      <c r="AQ31" s="43">
+      <c r="AQ31" s="37">
         <v>4.71</v>
       </c>
-      <c r="AR31" s="43">
+      <c r="AR31" s="37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AS31" s="43">
+      <c r="AS31" s="37">
         <v>5.29</v>
       </c>
     </row>
@@ -14007,10 +13966,10 @@
       <c r="AN83" s="1">
         <v>-85800000</v>
       </c>
-      <c r="AU83" s="69" t="s">
+      <c r="AU83" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="AV83" s="70"/>
+      <c r="AV83" s="41"/>
     </row>
     <row r="84" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -14133,10 +14092,10 @@
       <c r="AN84" s="1">
         <v>456700000</v>
       </c>
-      <c r="AU84" s="71" t="s">
+      <c r="AU84" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AV84" s="72"/>
+      <c r="AV84" s="42"/>
     </row>
     <row r="85" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14259,10 +14218,10 @@
       <c r="AN85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU85" s="23" t="s">
+      <c r="AU85" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AV85" s="24">
+      <c r="AV85" s="44">
         <f>AN17</f>
         <v>383400000</v>
       </c>
@@ -14388,10 +14347,10 @@
       <c r="AN86" s="1">
         <v>-427500000</v>
       </c>
-      <c r="AU86" s="23" t="s">
+      <c r="AU86" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="AV86" s="24">
+      <c r="AV86" s="44">
         <f>AN56</f>
         <v>2592300000</v>
       </c>
@@ -14517,10 +14476,10 @@
       <c r="AN87" s="10">
         <v>3316100000</v>
       </c>
-      <c r="AU87" s="23" t="s">
+      <c r="AU87" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AV87" s="24">
+      <c r="AV87" s="44">
         <f>AN61</f>
         <v>9383100000</v>
       </c>
@@ -14646,10 +14605,10 @@
       <c r="AN88" s="1">
         <v>-568700000</v>
       </c>
-      <c r="AU88" s="44" t="s">
+      <c r="AU88" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AV88" s="45">
+      <c r="AV88" s="46">
         <f>AV85/(AV86+AV87)</f>
         <v>3.2015632045693673E-2</v>
       </c>
@@ -14814,10 +14773,10 @@
         <f t="shared" si="10"/>
         <v>2.9942925740280527E-2</v>
       </c>
-      <c r="AU89" s="23" t="s">
+      <c r="AU89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AV89" s="24">
+      <c r="AV89" s="44">
         <f>AN27</f>
         <v>586300000</v>
       </c>
@@ -14943,10 +14902,10 @@
       <c r="AN90" s="1">
         <v>-1111800000</v>
       </c>
-      <c r="AU90" s="23" t="s">
+      <c r="AU90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AV90" s="24">
+      <c r="AV90" s="44">
         <f>AN25</f>
         <v>3209600000</v>
       </c>
@@ -15072,10 +15031,10 @@
       <c r="AN91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU91" s="44" t="s">
+      <c r="AU91" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="AV91" s="45">
+      <c r="AV91" s="46">
         <f>AV89/AV90</f>
         <v>0.18267073778664009</v>
       </c>
@@ -15201,10 +15160,10 @@
       <c r="AN92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU92" s="46" t="s">
+      <c r="AU92" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="AV92" s="47">
+      <c r="AV92" s="46">
         <f>AV88*(1-AV91)</f>
         <v>2.6167312919201213E-2</v>
       </c>
@@ -15330,10 +15289,10 @@
       <c r="AN93" s="1">
         <v>-10200000</v>
       </c>
-      <c r="AU93" s="71" t="s">
+      <c r="AU93" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="AV93" s="72"/>
+      <c r="AV93" s="42"/>
     </row>
     <row r="94" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15456,12 +15415,12 @@
       <c r="AN94" s="10">
         <v>-1690700000</v>
       </c>
-      <c r="AU94" s="23" t="s">
+      <c r="AU94" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="AV94" s="48">
+      <c r="AV94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7450000000000004E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -15585,12 +15544,12 @@
       <c r="AN95" s="1">
         <v>-3140900000</v>
       </c>
-      <c r="AU95" s="49" t="s">
+      <c r="AU95" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="AV95" s="50" cm="1">
+      <c r="AV95" s="49" cm="1">
         <f t="array" ref="AV95">_FV(A1,"Beta")</f>
-        <v>0.25219999999999998</v>
+        <v>0.22109999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -15714,10 +15673,10 @@
       <c r="AN96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU96" s="23" t="s">
+      <c r="AU96" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AV96" s="48">
+      <c r="AV96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15842,12 +15801,12 @@
       <c r="AN97" s="1">
         <v>-876800000</v>
       </c>
-      <c r="AU97" s="46" t="s">
+      <c r="AU97" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="AV97" s="47">
+      <c r="AV97" s="46">
         <f>(AV94)+((AV95)*(AV96-AV94))</f>
-        <v>4.9189910000000003E-2</v>
+        <v>4.8591205999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15971,10 +15930,10 @@
       <c r="AN98" s="1">
         <v>-1444500000</v>
       </c>
-      <c r="AU98" s="71" t="s">
+      <c r="AU98" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AV98" s="72"/>
+      <c r="AV98" s="42"/>
     </row>
     <row r="99" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -16097,10 +16056,10 @@
       <c r="AN99" s="1">
         <v>2959000000</v>
       </c>
-      <c r="AU99" s="23" t="s">
+      <c r="AU99" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AV99" s="24">
+      <c r="AV99" s="44">
         <f>AV86+AV87</f>
         <v>11975400000</v>
       </c>
@@ -16226,12 +16185,12 @@
       <c r="AN100" s="10">
         <v>-2503200000</v>
       </c>
-      <c r="AU100" s="44" t="s">
+      <c r="AU100" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="AV100" s="45">
+      <c r="AV100" s="46">
         <f>AV99/AV103</f>
-        <v>0.20163142140909265</v>
+        <v>0.2106160299914244</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16355,12 +16314,12 @@
       <c r="AN101" s="1">
         <v>-58000000</v>
       </c>
-      <c r="AU101" s="49" t="s">
+      <c r="AU101" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AV101" s="51" cm="1">
+      <c r="AV101" s="50" cm="1">
         <f t="array" ref="AV101">_FV(A1,"Market cap",TRUE)</f>
-        <v>47417128785</v>
+        <v>44883520000</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16484,12 +16443,12 @@
       <c r="AN102" s="10">
         <v>-935800000</v>
       </c>
-      <c r="AU102" s="44" t="s">
+      <c r="AU102" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AV102" s="45">
+      <c r="AV102" s="46">
         <f>AV101/AV103</f>
-        <v>0.79836857859090737</v>
+        <v>0.78938397000857563</v>
       </c>
     </row>
     <row r="103" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16613,12 +16572,12 @@
       <c r="AN103" s="1">
         <v>1505200000</v>
       </c>
-      <c r="AU103" s="46" t="s">
+      <c r="AU103" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AV103" s="52">
+      <c r="AV103" s="51">
         <f>AV99+AV101</f>
-        <v>59392528785</v>
+        <v>56858920000</v>
       </c>
     </row>
     <row r="104" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16742,10 +16701,10 @@
       <c r="AN104" s="11">
         <v>569400000</v>
       </c>
-      <c r="AU104" s="71" t="s">
+      <c r="AU104" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="AV104" s="72"/>
+      <c r="AV104" s="42"/>
     </row>
     <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16907,35 +16866,35 @@
         <f>(AN22*(1-$AV$91))+AN77+AN88+AN81</f>
         <v>3119873049.6011963</v>
       </c>
-      <c r="AO105" s="30">
+      <c r="AO105" s="26">
         <f>AN105*(1+$AV$106)</f>
         <v>3222294399.7911878</v>
       </c>
-      <c r="AP105" s="30">
+      <c r="AP105" s="26">
         <f t="shared" ref="AP105:AS105" si="12">AO105*(1+$AV$106)</f>
         <v>3328078108.9002647</v>
       </c>
-      <c r="AQ105" s="30">
+      <c r="AQ105" s="26">
         <f t="shared" si="12"/>
         <v>3437334558.7724447</v>
       </c>
-      <c r="AR105" s="30">
+      <c r="AR105" s="26">
         <f t="shared" si="12"/>
         <v>3550177754.9432616</v>
       </c>
-      <c r="AS105" s="30">
+      <c r="AS105" s="26">
         <f t="shared" si="12"/>
         <v>3666725445.6008162</v>
       </c>
-      <c r="AT105" s="27" t="s">
+      <c r="AT105" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AU105" s="31" t="s">
+      <c r="AU105" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AV105" s="32">
+      <c r="AV105" s="53">
         <f>(AV100*AV92)+(AV102*AV97)</f>
-        <v>4.4547831026069712E-2</v>
+        <v>4.3868374662369987E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17095,34 +17054,34 @@
         <f t="shared" si="13"/>
         <v>0.12029032784211391</v>
       </c>
-      <c r="AO106" s="26">
+      <c r="AO106" s="24">
         <v>2959000000</v>
       </c>
-      <c r="AP106" s="26">
+      <c r="AP106" s="24">
         <v>3005000000</v>
       </c>
-      <c r="AQ106" s="26">
+      <c r="AQ106" s="24">
         <v>3044000000</v>
       </c>
-      <c r="AR106" s="26">
+      <c r="AR106" s="24">
         <v>3322000000</v>
       </c>
-      <c r="AS106" s="26">
+      <c r="AS106" s="24">
         <v>3385000000</v>
       </c>
-      <c r="AT106" s="27" t="s">
+      <c r="AT106" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AU106" s="28" t="s">
+      <c r="AU106" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AV106" s="29">
+      <c r="AV106" s="55">
         <f>(SUM(AO4:AS4)/5)</f>
         <v>3.2828691604321537E-2</v>
       </c>
     </row>
     <row r="107" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="1">
@@ -17242,21 +17201,21 @@
       <c r="AN107" s="1">
         <v>2747400000</v>
       </c>
-      <c r="AO107" s="27"/>
-      <c r="AP107" s="27"/>
-      <c r="AQ107" s="27"/>
-      <c r="AR107" s="27"/>
-      <c r="AS107" s="53">
+      <c r="AO107" s="25"/>
+      <c r="AP107" s="25"/>
+      <c r="AQ107" s="25"/>
+      <c r="AR107" s="25"/>
+      <c r="AS107" s="38">
         <f>AS106*(1+AV107)/(AV108-AV107)</f>
-        <v>116278416407.91348</v>
-      </c>
-      <c r="AT107" s="54" t="s">
+        <v>119015186694.19731</v>
+      </c>
+      <c r="AT107" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="AU107" s="55" t="s">
+      <c r="AU107" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="AV107" s="56">
+      <c r="AV107" s="57">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -17301,81 +17260,81 @@
       <c r="AL108" s="13"/>
       <c r="AM108" s="13"/>
       <c r="AN108" s="13"/>
-      <c r="AO108" s="53">
+      <c r="AO108" s="38">
         <f t="shared" ref="AO108:AR108" si="14">AO107+AO106</f>
         <v>2959000000</v>
       </c>
-      <c r="AP108" s="53">
+      <c r="AP108" s="38">
         <f t="shared" si="14"/>
         <v>3005000000</v>
       </c>
-      <c r="AQ108" s="53">
+      <c r="AQ108" s="38">
         <f t="shared" si="14"/>
         <v>3044000000</v>
       </c>
-      <c r="AR108" s="53">
+      <c r="AR108" s="38">
         <f t="shared" si="14"/>
         <v>3322000000</v>
       </c>
-      <c r="AS108" s="53">
+      <c r="AS108" s="38">
         <f>AS107+AS106</f>
-        <v>119663416407.91348</v>
-      </c>
-      <c r="AT108" s="54" t="s">
+        <v>122400186694.19731</v>
+      </c>
+      <c r="AT108" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AU108" s="57" t="s">
+      <c r="AU108" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AV108" s="58">
+      <c r="AV108" s="55">
         <f>AV105</f>
-        <v>4.4547831026069712E-2</v>
+        <v>4.3868374662369987E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AO109" s="67" t="s">
+      <c r="AO109" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="AP109" s="68"/>
+      <c r="AP109" s="59"/>
     </row>
     <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO110" s="59" t="s">
+      <c r="AO110" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="AP110" s="51">
+      <c r="AP110" s="50">
         <f>NPV(AV108,AO108,AP108,AQ108,AR108,AS108)</f>
-        <v>107280446542.51721</v>
+        <v>109820018476.6703</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO111" s="59" t="s">
+      <c r="AO111" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="AP111" s="51">
+      <c r="AP111" s="50">
         <f>AN40</f>
         <v>819200000</v>
       </c>
     </row>
     <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO112" s="59" t="s">
+      <c r="AO112" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AP112" s="51">
+      <c r="AP112" s="50">
         <f>AV99</f>
         <v>11975400000</v>
       </c>
     </row>
     <row r="113" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO113" s="59" t="s">
+      <c r="AO113" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="AP113" s="51">
+      <c r="AP113" s="50">
         <f>AP110+AP111-AP112</f>
-        <v>96124246542.517212</v>
+        <v>98663818476.670303</v>
       </c>
     </row>
     <row r="114" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO114" s="59" t="s">
+      <c r="AO114" s="60" t="s">
         <v>160</v>
       </c>
       <c r="AP114" s="60">
@@ -17389,32 +17348,32 @@
       </c>
       <c r="AP115" s="62">
         <f>AP113/AP114</f>
-        <v>153.07382256273939</v>
+        <v>157.1179841308815</v>
       </c>
     </row>
     <row r="116" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO116" s="59" t="s">
+      <c r="AO116" s="60" t="s">
         <v>162</v>
       </c>
       <c r="AP116" s="63" cm="1">
         <f t="array" ref="AP116">_FV(A1,"Price")</f>
-        <v>80.73</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="117" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO117" s="64" t="s">
+      <c r="AO117" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="AP117" s="65">
+      <c r="AP117" s="64">
         <f>AP115/AP116-1</f>
-        <v>0.8961206808217439</v>
+        <v>1.0484743693726402</v>
       </c>
     </row>
     <row r="118" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO118" s="64" t="s">
+      <c r="AO118" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="AP118" s="66" t="str">
+      <c r="AP118" s="65" t="str">
         <f>IF(AP115&gt;AP116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/To Be Modeled/General Mills.xlsx
+++ b/To Be Modeled/General Mills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1799B-6FD2-3941-BC92-C75D5A1D0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BAC84-BEF1-7D44-911E-0140278F947B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -951,67 +951,67 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2441,7 +2441,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>3.8190000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2582,10 +2582,8 @@
     <v>90.89</v>
     <v>72.16</v>
     <v>0.22109999999999999</v>
-    <v>0.4</v>
-    <v>5.2420000000000001E-3</v>
-    <v>0.15</v>
-    <v>1.9559999999999998E-3</v>
+    <v>0.42</v>
+    <v>5.476E-3</v>
     <v>USD</v>
     <v>General Mills, Inc. is a global manufacturer and marketer of branded consumer foods. The Company operates through four segments: North America Retail, International, Pet, and North America Foodservice. The North America Retail segment reflects business with a variety of grocery stores, mass merchandisers, membership stores, natural food chains, drug, dollar and discount chains, convenience stores, and e-commerce grocery providers. The International segment reflects retail and foodservice businesses outside of the United States and Canada. The Pet segment includes pet food products sold primarily in the United States and Canada in national pet superstore chains, e-commerce retailers, grocery stores, regional pet store chains, mass merchandisers, and veterinary clinics and hospitals. The North America Foodservice segment offers products, such as ready-to-eat cereals, snacks, refrigerated yogurt, frozen meals, unbaked and fully baked frozen dough products, baking mixes, and bakery flour.</v>
     <v>34000</v>
@@ -2593,25 +2591,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Number One General Mills Blvd, MINNEAPOLIS, MN, 55426 US</v>
-    <v>77.040099999999995</v>
+    <v>77.254999999999995</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45107.999426307812</v>
+    <v>45110.875000022657</v>
     <v>0</v>
-    <v>76.41</v>
-    <v>44883520000</v>
+    <v>75.8</v>
+    <v>45129289824</v>
     <v>GENERAL MILLS, INC.</v>
     <v>GENERAL MILLS, INC.</v>
-    <v>76.48</v>
-    <v>17.6951</v>
     <v>76.3</v>
+    <v>17.787800000000001</v>
     <v>76.7</v>
-    <v>76.849999999999994</v>
+    <v>77.12</v>
     <v>585182700</v>
     <v>GIS</v>
     <v>GENERAL MILLS, INC. (XNYS:GIS)</v>
-    <v>4125997</v>
-    <v>4222859</v>
+    <v>2756220</v>
+    <v>4296416</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -2643,8 +2640,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2665,7 +2660,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2682,7 +2676,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2693,16 +2687,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2768,19 +2759,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2825,9 +2810,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2835,9 +2817,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3199,10 +3178,10 @@
   <dimension ref="A1:AW118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR91" sqref="AR91"/>
+      <selection pane="bottomRight" activeCell="AS96" sqref="AS96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5468,15 +5447,15 @@
       </c>
       <c r="AU16" s="30">
         <f>AV101/AN3</f>
-        <v>2.3631860494503178</v>
+        <v>2.3761262069836993</v>
       </c>
       <c r="AV16" s="30">
         <f>AV101/AN28</f>
-        <v>16.578702027850625</v>
+        <v>16.669482445240646</v>
       </c>
       <c r="AW16" s="31">
         <f>AV101/AN107</f>
-        <v>16.336725631506152</v>
+        <v>16.426181052631581</v>
       </c>
     </row>
     <row r="17" spans="1:49" ht="19" x14ac:dyDescent="0.25">
@@ -5877,15 +5856,15 @@
       </c>
       <c r="AU19" s="30">
         <f>AV101/AO3</f>
-        <v>2.2188807593434845</v>
+        <v>2.2310307407553887</v>
       </c>
       <c r="AV19" s="30">
         <f>AV101/AO28</f>
-        <v>17.60828560219694</v>
+        <v>17.704703736367204</v>
       </c>
       <c r="AW19" s="31">
         <f>AV101/AO106</f>
-        <v>15.168475836431227</v>
+        <v>15.251534242649544</v>
       </c>
     </row>
     <row r="20" spans="1:49" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6335,13 +6314,13 @@
       <c r="AN22" s="10">
         <v>3475800000</v>
       </c>
-      <c r="AV22" s="66">
+      <c r="AV22" s="62">
         <f>(-1*AN98)/AV101</f>
-        <v>3.2183304696244856E-2</v>
-      </c>
-      <c r="AW22" s="67">
+        <v>3.2008037477066771E-2</v>
+      </c>
+      <c r="AW22" s="63">
         <f>AN107/AV101</f>
-        <v>6.1211776616450761E-2</v>
+        <v>6.0878423097606951E-2</v>
       </c>
     </row>
     <row r="23" spans="1:49" ht="19" x14ac:dyDescent="0.25">
@@ -13966,10 +13945,10 @@
       <c r="AN83" s="1">
         <v>-85800000</v>
       </c>
-      <c r="AU83" s="40" t="s">
+      <c r="AU83" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AV83" s="41"/>
+      <c r="AV83" s="66"/>
     </row>
     <row r="84" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -14092,10 +14071,10 @@
       <c r="AN84" s="1">
         <v>456700000</v>
       </c>
-      <c r="AU84" s="42" t="s">
+      <c r="AU84" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="AV84" s="42"/>
+      <c r="AV84" s="67"/>
     </row>
     <row r="85" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14218,10 +14197,10 @@
       <c r="AN85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU85" s="43" t="s">
+      <c r="AU85" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AV85" s="44">
+      <c r="AV85" s="41">
         <f>AN17</f>
         <v>383400000</v>
       </c>
@@ -14347,10 +14326,10 @@
       <c r="AN86" s="1">
         <v>-427500000</v>
       </c>
-      <c r="AU86" s="43" t="s">
+      <c r="AU86" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AV86" s="44">
+      <c r="AV86" s="41">
         <f>AN56</f>
         <v>2592300000</v>
       </c>
@@ -14476,10 +14455,10 @@
       <c r="AN87" s="10">
         <v>3316100000</v>
       </c>
-      <c r="AU87" s="43" t="s">
+      <c r="AU87" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AV87" s="44">
+      <c r="AV87" s="41">
         <f>AN61</f>
         <v>9383100000</v>
       </c>
@@ -14605,10 +14584,10 @@
       <c r="AN88" s="1">
         <v>-568700000</v>
       </c>
-      <c r="AU88" s="45" t="s">
+      <c r="AU88" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="AV88" s="46">
+      <c r="AV88" s="43">
         <f>AV85/(AV86+AV87)</f>
         <v>3.2015632045693673E-2</v>
       </c>
@@ -14773,10 +14752,10 @@
         <f t="shared" si="10"/>
         <v>2.9942925740280527E-2</v>
       </c>
-      <c r="AU89" s="43" t="s">
+      <c r="AU89" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AV89" s="44">
+      <c r="AV89" s="41">
         <f>AN27</f>
         <v>586300000</v>
       </c>
@@ -14902,10 +14881,10 @@
       <c r="AN90" s="1">
         <v>-1111800000</v>
       </c>
-      <c r="AU90" s="43" t="s">
+      <c r="AU90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AV90" s="44">
+      <c r="AV90" s="41">
         <f>AN25</f>
         <v>3209600000</v>
       </c>
@@ -15031,10 +15010,10 @@
       <c r="AN91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU91" s="45" t="s">
+      <c r="AU91" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AV91" s="46">
+      <c r="AV91" s="43">
         <f>AV89/AV90</f>
         <v>0.18267073778664009</v>
       </c>
@@ -15160,10 +15139,10 @@
       <c r="AN92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU92" s="45" t="s">
+      <c r="AU92" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="AV92" s="46">
+      <c r="AV92" s="43">
         <f>AV88*(1-AV91)</f>
         <v>2.6167312919201213E-2</v>
       </c>
@@ -15289,10 +15268,10 @@
       <c r="AN93" s="1">
         <v>-10200000</v>
       </c>
-      <c r="AU93" s="42" t="s">
+      <c r="AU93" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AV93" s="42"/>
+      <c r="AV93" s="67"/>
     </row>
     <row r="94" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15415,12 +15394,12 @@
       <c r="AN94" s="10">
         <v>-1690700000</v>
       </c>
-      <c r="AU94" s="43" t="s">
+      <c r="AU94" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="AV94" s="47">
+      <c r="AV94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>3.8190000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -15544,10 +15523,10 @@
       <c r="AN95" s="1">
         <v>-3140900000</v>
       </c>
-      <c r="AU95" s="48" t="s">
+      <c r="AU95" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AV95" s="49" cm="1">
+      <c r="AV95" s="46" cm="1">
         <f t="array" ref="AV95">_FV(A1,"Beta")</f>
         <v>0.22109999999999999</v>
       </c>
@@ -15673,10 +15652,10 @@
       <c r="AN96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU96" s="43" t="s">
+      <c r="AU96" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="AV96" s="47">
+      <c r="AV96" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15801,12 +15780,12 @@
       <c r="AN97" s="1">
         <v>-876800000</v>
       </c>
-      <c r="AU97" s="45" t="s">
+      <c r="AU97" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="AV97" s="46">
+      <c r="AV97" s="43">
         <f>(AV94)+((AV95)*(AV96-AV94))</f>
-        <v>4.8591205999999998E-2</v>
+        <v>4.8318591000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15930,10 +15909,10 @@
       <c r="AN98" s="1">
         <v>-1444500000</v>
       </c>
-      <c r="AU98" s="42" t="s">
+      <c r="AU98" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AV98" s="42"/>
+      <c r="AV98" s="67"/>
     </row>
     <row r="99" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -16056,10 +16035,10 @@
       <c r="AN99" s="1">
         <v>2959000000</v>
       </c>
-      <c r="AU99" s="43" t="s">
+      <c r="AU99" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AV99" s="44">
+      <c r="AV99" s="41">
         <f>AV86+AV87</f>
         <v>11975400000</v>
       </c>
@@ -16185,12 +16164,12 @@
       <c r="AN100" s="10">
         <v>-2503200000</v>
       </c>
-      <c r="AU100" s="45" t="s">
+      <c r="AU100" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="AV100" s="46">
+      <c r="AV100" s="43">
         <f>AV99/AV103</f>
-        <v>0.2106160299914244</v>
+        <v>0.20970957091105624</v>
       </c>
     </row>
     <row r="101" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16314,12 +16293,12 @@
       <c r="AN101" s="1">
         <v>-58000000</v>
       </c>
-      <c r="AU101" s="48" t="s">
+      <c r="AU101" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AV101" s="50" cm="1">
+      <c r="AV101" s="47" cm="1">
         <f t="array" ref="AV101">_FV(A1,"Market cap",TRUE)</f>
-        <v>44883520000</v>
+        <v>45129289824</v>
       </c>
     </row>
     <row r="102" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16443,12 +16422,12 @@
       <c r="AN102" s="10">
         <v>-935800000</v>
       </c>
-      <c r="AU102" s="45" t="s">
+      <c r="AU102" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="AV102" s="46">
+      <c r="AV102" s="43">
         <f>AV101/AV103</f>
-        <v>0.78938397000857563</v>
+        <v>0.79029042908894376</v>
       </c>
     </row>
     <row r="103" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -16572,12 +16551,12 @@
       <c r="AN103" s="1">
         <v>1505200000</v>
       </c>
-      <c r="AU103" s="45" t="s">
+      <c r="AU103" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="AV103" s="51">
+      <c r="AV103" s="48">
         <f>AV99+AV101</f>
-        <v>56858920000</v>
+        <v>57104689824</v>
       </c>
     </row>
     <row r="104" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16701,10 +16680,10 @@
       <c r="AN104" s="11">
         <v>569400000</v>
       </c>
-      <c r="AU104" s="42" t="s">
+      <c r="AU104" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="AV104" s="42"/>
+      <c r="AV104" s="67"/>
     </row>
     <row r="105" spans="1:48" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16889,12 +16868,12 @@
       <c r="AT105" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AU105" s="52" t="s">
+      <c r="AU105" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AV105" s="53">
+      <c r="AV105" s="50">
         <f>(AV100*AV92)+(AV102*AV97)</f>
-        <v>4.3868374662369987E-2</v>
+        <v>4.3673255978544198E-2</v>
       </c>
     </row>
     <row r="106" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17072,10 +17051,10 @@
       <c r="AT106" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AU106" s="54" t="s">
+      <c r="AU106" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="AV106" s="55">
+      <c r="AV106" s="52">
         <f>(SUM(AO4:AS4)/5)</f>
         <v>3.2828691604321537E-2</v>
       </c>
@@ -17207,15 +17186,15 @@
       <c r="AR107" s="25"/>
       <c r="AS107" s="38">
         <f>AS106*(1+AV107)/(AV108-AV107)</f>
-        <v>119015186694.19731</v>
+        <v>119825073321.6675</v>
       </c>
       <c r="AT107" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="AU107" s="56" t="s">
+      <c r="AU107" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="AV107" s="57">
+      <c r="AV107" s="54">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -17278,102 +17257,102 @@
       </c>
       <c r="AS108" s="38">
         <f>AS107+AS106</f>
-        <v>122400186694.19731</v>
+        <v>123210073321.6675</v>
       </c>
       <c r="AT108" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AU108" s="58" t="s">
+      <c r="AU108" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AV108" s="55">
+      <c r="AV108" s="52">
         <f>AV105</f>
-        <v>4.3868374662369987E-2</v>
+        <v>4.3673255978544198E-2</v>
       </c>
     </row>
     <row r="109" spans="1:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="AO109" s="59" t="s">
+      <c r="AO109" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="AP109" s="59"/>
+      <c r="AP109" s="64"/>
     </row>
     <row r="110" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO110" s="60" t="s">
+      <c r="AO110" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AP110" s="50">
+      <c r="AP110" s="47">
         <f>NPV(AV108,AO108,AP108,AQ108,AR108,AS108)</f>
-        <v>109820018476.6703</v>
+        <v>110571555824.86642</v>
       </c>
     </row>
     <row r="111" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO111" s="60" t="s">
+      <c r="AO111" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AP111" s="50">
+      <c r="AP111" s="47">
         <f>AN40</f>
         <v>819200000</v>
       </c>
     </row>
     <row r="112" spans="1:48" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO112" s="60" t="s">
+      <c r="AO112" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AP112" s="50">
+      <c r="AP112" s="47">
         <f>AV99</f>
         <v>11975400000</v>
       </c>
     </row>
     <row r="113" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO113" s="60" t="s">
+      <c r="AO113" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="AP113" s="50">
+      <c r="AP113" s="47">
         <f>AP110+AP111-AP112</f>
-        <v>98663818476.670303</v>
+        <v>99415355824.866425</v>
       </c>
     </row>
     <row r="114" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO114" s="60" t="s">
+      <c r="AO114" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="AP114" s="60">
+      <c r="AP114" s="56">
         <f>AN34*(1+(AT16*5))</f>
         <v>627960058.31186044</v>
       </c>
     </row>
     <row r="115" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO115" s="61" t="s">
+      <c r="AO115" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="AP115" s="62">
+      <c r="AP115" s="58">
         <f>AP113/AP114</f>
-        <v>157.1179841308815</v>
+        <v>158.31477577112764</v>
       </c>
     </row>
     <row r="116" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO116" s="60" t="s">
+      <c r="AO116" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="AP116" s="63" cm="1">
+      <c r="AP116" s="59" cm="1">
         <f t="array" ref="AP116">_FV(A1,"Price")</f>
-        <v>76.7</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="117" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO117" s="61" t="s">
+      <c r="AO117" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="AP117" s="64">
+      <c r="AP117" s="60">
         <f>AP115/AP116-1</f>
-        <v>1.0484743693726402</v>
+        <v>1.0528368227583975</v>
       </c>
     </row>
     <row r="118" spans="41:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AO118" s="61" t="s">
+      <c r="AO118" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="AP118" s="65" t="str">
+      <c r="AP118" s="61" t="str">
         <f>IF(AP115&gt;AP116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
